--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cody\Desktop\pollitt-master - Copy\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cody\Desktop\Data_mining_w_pollitt\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -374,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K86"/>
+  <dimension ref="A1:K87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3390,6 +3390,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>197</v>
+      </c>
+      <c r="B87">
+        <v>7</v>
+      </c>
+      <c r="C87">
+        <v>4</v>
+      </c>
+      <c r="D87">
+        <v>4</v>
+      </c>
+      <c r="E87">
+        <v>5</v>
+      </c>
+      <c r="F87">
+        <v>7</v>
+      </c>
+      <c r="G87">
+        <v>7</v>
+      </c>
+      <c r="H87">
+        <v>6</v>
+      </c>
+      <c r="I87">
+        <v>5</v>
+      </c>
+      <c r="J87">
+        <v>4</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -374,9 +374,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K87"/>
+  <dimension ref="A1:K98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3425,6 +3425,391 @@
         <v>1</v>
       </c>
     </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>323</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>5</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>6</v>
+      </c>
+      <c r="F88">
+        <v>7</v>
+      </c>
+      <c r="G88">
+        <v>6</v>
+      </c>
+      <c r="H88">
+        <v>7</v>
+      </c>
+      <c r="I88">
+        <v>4</v>
+      </c>
+      <c r="J88">
+        <v>5</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>253</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89">
+        <v>7</v>
+      </c>
+      <c r="D89">
+        <v>6</v>
+      </c>
+      <c r="E89">
+        <v>5</v>
+      </c>
+      <c r="F89">
+        <v>4</v>
+      </c>
+      <c r="G89">
+        <v>4</v>
+      </c>
+      <c r="H89">
+        <v>6</v>
+      </c>
+      <c r="I89">
+        <v>3</v>
+      </c>
+      <c r="J89">
+        <v>6</v>
+      </c>
+      <c r="K89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>85</v>
+      </c>
+      <c r="B90">
+        <v>7</v>
+      </c>
+      <c r="C90">
+        <v>6</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90">
+        <v>7</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90">
+        <v>2</v>
+      </c>
+      <c r="H90">
+        <v>7</v>
+      </c>
+      <c r="I90">
+        <v>7</v>
+      </c>
+      <c r="J90">
+        <v>5</v>
+      </c>
+      <c r="K90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>153</v>
+      </c>
+      <c r="B91">
+        <v>2</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>5</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <v>2</v>
+      </c>
+      <c r="H91">
+        <v>2</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>3</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>139</v>
+      </c>
+      <c r="B92">
+        <v>6</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>5</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>6</v>
+      </c>
+      <c r="H92">
+        <v>7</v>
+      </c>
+      <c r="I92">
+        <v>6</v>
+      </c>
+      <c r="J92">
+        <v>2</v>
+      </c>
+      <c r="K92">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>246</v>
+      </c>
+      <c r="B93">
+        <v>7</v>
+      </c>
+      <c r="C93">
+        <v>4</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>5</v>
+      </c>
+      <c r="F93">
+        <v>2</v>
+      </c>
+      <c r="G93">
+        <v>3</v>
+      </c>
+      <c r="H93">
+        <v>5</v>
+      </c>
+      <c r="I93">
+        <v>5</v>
+      </c>
+      <c r="J93">
+        <v>3</v>
+      </c>
+      <c r="K93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>156</v>
+      </c>
+      <c r="B94">
+        <v>3</v>
+      </c>
+      <c r="C94">
+        <v>4</v>
+      </c>
+      <c r="D94">
+        <v>4</v>
+      </c>
+      <c r="E94">
+        <v>6</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>7</v>
+      </c>
+      <c r="H94">
+        <v>7</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>2</v>
+      </c>
+      <c r="K94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>237</v>
+      </c>
+      <c r="B95">
+        <v>7</v>
+      </c>
+      <c r="C95">
+        <v>4</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
+      </c>
+      <c r="E95">
+        <v>6</v>
+      </c>
+      <c r="F95">
+        <v>2</v>
+      </c>
+      <c r="G95">
+        <v>7</v>
+      </c>
+      <c r="H95">
+        <v>4</v>
+      </c>
+      <c r="I95">
+        <v>7</v>
+      </c>
+      <c r="J95">
+        <v>6</v>
+      </c>
+      <c r="K95">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>274</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <v>4</v>
+      </c>
+      <c r="D96">
+        <v>4</v>
+      </c>
+      <c r="E96">
+        <v>6</v>
+      </c>
+      <c r="F96">
+        <v>4</v>
+      </c>
+      <c r="G96">
+        <v>4</v>
+      </c>
+      <c r="H96">
+        <v>7</v>
+      </c>
+      <c r="I96">
+        <v>4</v>
+      </c>
+      <c r="J96">
+        <v>6</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>308</v>
+      </c>
+      <c r="B97">
+        <v>7</v>
+      </c>
+      <c r="C97">
+        <v>4</v>
+      </c>
+      <c r="D97">
+        <v>4</v>
+      </c>
+      <c r="E97">
+        <v>6</v>
+      </c>
+      <c r="F97">
+        <v>6</v>
+      </c>
+      <c r="G97">
+        <v>7</v>
+      </c>
+      <c r="H97">
+        <v>4</v>
+      </c>
+      <c r="I97">
+        <v>5</v>
+      </c>
+      <c r="J97">
+        <v>2</v>
+      </c>
+      <c r="K97">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>200</v>
+      </c>
+      <c r="B98">
+        <v>7</v>
+      </c>
+      <c r="C98">
+        <v>6</v>
+      </c>
+      <c r="D98">
+        <v>3</v>
+      </c>
+      <c r="E98">
+        <v>5</v>
+      </c>
+      <c r="F98">
+        <v>7</v>
+      </c>
+      <c r="G98">
+        <v>7</v>
+      </c>
+      <c r="H98">
+        <v>6</v>
+      </c>
+      <c r="I98">
+        <v>2</v>
+      </c>
+      <c r="J98">
+        <v>2</v>
+      </c>
+      <c r="K98">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
